--- a/Datasets/Cyton datasets/Cyton_rms_livedataset.xlsx
+++ b/Datasets/Cyton datasets/Cyton_rms_livedataset.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\GitHub\BCI-UBC\Datasets\Cyton datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D23C32-CB2B-4BC7-A717-33DFEA8C8141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10433EC-A764-41DC-98DE-3768955B653B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Training" sheetId="2" r:id="rId4"/>
+    <sheet name="Testing" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +55,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -61,12 +63,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,15 +391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D0858A-C734-464F-9844-B04E90F35964}">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M96" sqref="M96"/>
+    <sheetView tabSelected="true" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.53886500000000004</v>
       </c>
@@ -418,7 +428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.53272900000000001</v>
       </c>
@@ -447,7 +457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.52609899999999998</v>
       </c>
@@ -476,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.52134400000000003</v>
       </c>
@@ -505,7 +515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.51917100000000005</v>
       </c>
@@ -534,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.53681900000000005</v>
       </c>
@@ -563,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.2043809999999999</v>
       </c>
@@ -592,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.51995999999999998</v>
       </c>
@@ -621,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.52679699999999996</v>
       </c>
@@ -650,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.51934999999999998</v>
       </c>
@@ -679,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.51580700000000002</v>
       </c>
@@ -708,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.64019400000000004</v>
       </c>
@@ -737,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.58574999999999999</v>
       </c>
@@ -766,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.59968200000000005</v>
       </c>
@@ -795,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.59945300000000001</v>
       </c>
@@ -824,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.58977599999999997</v>
       </c>
@@ -853,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.59965800000000002</v>
       </c>
@@ -882,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.59267300000000001</v>
       </c>
@@ -911,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.59690600000000005</v>
       </c>
@@ -940,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.59306499999999995</v>
       </c>
@@ -969,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.58211199999999996</v>
       </c>
@@ -998,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.56198800000000004</v>
       </c>
@@ -1027,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.58147099999999996</v>
       </c>
@@ -1056,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.56258300000000006</v>
       </c>
@@ -1085,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.54921399999999998</v>
       </c>
@@ -1114,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.6504289999999999</v>
       </c>
@@ -1143,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.77044800000000002</v>
       </c>
@@ -1172,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.76615200000000006</v>
       </c>
@@ -1201,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.73663199999999995</v>
       </c>
@@ -1230,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.78188800000000003</v>
       </c>
@@ -1259,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.69674800000000003</v>
       </c>
@@ -1288,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.698681</v>
       </c>
@@ -1317,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.69149099999999997</v>
       </c>
@@ -1346,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.655721</v>
       </c>
@@ -1375,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.60451999999999995</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.59514999999999996</v>
       </c>
@@ -1433,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.59284700000000001</v>
       </c>
@@ -1462,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.58096000000000003</v>
       </c>
@@ -1491,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1.2430840000000001</v>
       </c>
@@ -1520,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.59052199999999999</v>
       </c>
@@ -1549,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.578183</v>
       </c>
@@ -1578,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.57320499999999996</v>
       </c>
@@ -1607,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.58226500000000003</v>
       </c>
@@ -1636,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.540829</v>
       </c>
@@ -1665,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.531501</v>
       </c>
@@ -1694,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.52742</v>
       </c>
@@ -1723,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.51949999999999996</v>
       </c>
@@ -1752,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.53689200000000004</v>
       </c>
@@ -1781,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.52799600000000002</v>
       </c>
@@ -1810,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.53242299999999998</v>
       </c>
@@ -1839,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.57624200000000003</v>
       </c>
@@ -1868,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.57860100000000003</v>
       </c>
@@ -1897,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.571716</v>
       </c>
@@ -1926,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.58521999999999996</v>
       </c>
@@ -1955,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.60170100000000004</v>
       </c>
@@ -1984,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.58232399999999995</v>
       </c>
@@ -2013,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.57612699999999994</v>
       </c>
@@ -2042,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.57128699999999999</v>
       </c>
@@ -2071,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.58549200000000001</v>
       </c>
@@ -2100,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.59516100000000005</v>
       </c>
@@ -2129,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.58318700000000001</v>
       </c>
@@ -2158,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.585511</v>
       </c>
@@ -2187,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.68599200000000005</v>
       </c>
@@ -2216,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.54773000000000005</v>
       </c>
@@ -2245,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.54626200000000003</v>
       </c>
@@ -2274,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.56532199999999999</v>
       </c>
@@ -2303,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.54550600000000005</v>
       </c>
@@ -2332,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.54726200000000003</v>
       </c>
@@ -2361,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.557222</v>
       </c>
@@ -2390,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.55776999999999999</v>
       </c>
@@ -2419,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.569662</v>
       </c>
@@ -2448,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.54855399999999999</v>
       </c>
@@ -2477,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.54816600000000004</v>
       </c>
@@ -2506,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.57209900000000002</v>
       </c>
@@ -2535,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.55015499999999995</v>
       </c>
@@ -2564,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.54944199999999999</v>
       </c>
@@ -2593,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.56303199999999998</v>
       </c>
@@ -2622,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.561554</v>
       </c>
@@ -2651,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.55795700000000004</v>
       </c>
@@ -2680,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.56084599999999996</v>
       </c>
@@ -2709,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.58618599999999998</v>
       </c>
@@ -2738,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.58918599999999999</v>
       </c>
@@ -2767,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.56808199999999998</v>
       </c>
@@ -2796,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.66106699999999996</v>
       </c>
@@ -2825,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.70205099999999998</v>
       </c>
@@ -2854,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.57489199999999996</v>
       </c>
@@ -2883,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.55935900000000005</v>
       </c>
@@ -2912,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.561025</v>
       </c>
@@ -2941,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.57763500000000001</v>
       </c>
@@ -2970,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.63544100000000003</v>
       </c>
@@ -2999,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.54191</v>
       </c>
@@ -3028,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.55498899999999995</v>
       </c>
@@ -3057,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.56322399999999995</v>
       </c>
@@ -3086,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.54762</v>
       </c>
@@ -3115,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.61323099999999997</v>
       </c>
@@ -3144,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.56489699999999998</v>
       </c>
@@ -3173,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.53892700000000004</v>
       </c>
@@ -3202,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.53476699999999999</v>
       </c>
@@ -3231,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.53984200000000004</v>
       </c>
@@ -3260,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.54674900000000004</v>
       </c>
@@ -3289,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.55266000000000004</v>
       </c>
@@ -3318,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.53270099999999998</v>
       </c>
@@ -3347,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2.139338</v>
       </c>
@@ -3376,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0.72229699999999997</v>
       </c>
@@ -3405,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.52760600000000002</v>
       </c>
@@ -3431,10 +3441,5473 @@
         <v>0.57214500000000001</v>
       </c>
       <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0.59362300000000001</v>
+      </c>
+      <c r="B106">
+        <v>0.51390899999999995</v>
+      </c>
+      <c r="C106">
+        <v>0.523343</v>
+      </c>
+      <c r="D106">
+        <v>0.51217100000000004</v>
+      </c>
+      <c r="E106">
+        <v>0.51555300000000004</v>
+      </c>
+      <c r="F106">
+        <v>0.51529899999999995</v>
+      </c>
+      <c r="G106">
+        <v>0.53971100000000005</v>
+      </c>
+      <c r="H106">
+        <v>0.52736799999999995</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0.65216799999999997</v>
+      </c>
+      <c r="B107">
+        <v>0.52284200000000003</v>
+      </c>
+      <c r="C107">
+        <v>0.52476100000000003</v>
+      </c>
+      <c r="D107">
+        <v>0.51525500000000002</v>
+      </c>
+      <c r="E107">
+        <v>0.52185499999999996</v>
+      </c>
+      <c r="F107">
+        <v>0.51837100000000003</v>
+      </c>
+      <c r="G107">
+        <v>0.54859800000000003</v>
+      </c>
+      <c r="H107">
+        <v>0.52030699999999996</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0.63086200000000003</v>
+      </c>
+      <c r="B108">
+        <v>0.51987000000000005</v>
+      </c>
+      <c r="C108">
+        <v>0.51879900000000001</v>
+      </c>
+      <c r="D108">
+        <v>0.509629</v>
+      </c>
+      <c r="E108">
+        <v>0.51209899999999997</v>
+      </c>
+      <c r="F108">
+        <v>0.51301300000000005</v>
+      </c>
+      <c r="G108">
+        <v>0.53428900000000001</v>
+      </c>
+      <c r="H108">
+        <v>0.516957</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>0.61053299999999999</v>
+      </c>
+      <c r="B109">
+        <v>0.51620200000000005</v>
+      </c>
+      <c r="C109">
+        <v>0.51471100000000003</v>
+      </c>
+      <c r="D109">
+        <v>0.50870199999999999</v>
+      </c>
+      <c r="E109">
+        <v>0.51045700000000005</v>
+      </c>
+      <c r="F109">
+        <v>0.51394799999999996</v>
+      </c>
+      <c r="G109">
+        <v>0.52293599999999996</v>
+      </c>
+      <c r="H109">
+        <v>0.51405999999999996</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>0.60264700000000004</v>
+      </c>
+      <c r="B110">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="C110">
+        <v>0.53188299999999999</v>
+      </c>
+      <c r="D110">
+        <v>0.51729999999999998</v>
+      </c>
+      <c r="E110">
+        <v>0.51667600000000002</v>
+      </c>
+      <c r="F110">
+        <v>0.512934</v>
+      </c>
+      <c r="G110">
+        <v>0.54159599999999997</v>
+      </c>
+      <c r="H110">
+        <v>0.51683699999999999</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1.2359629999999999</v>
+      </c>
+      <c r="B111">
+        <v>0.98001099999999997</v>
+      </c>
+      <c r="C111">
+        <v>0.98244500000000001</v>
+      </c>
+      <c r="D111">
+        <v>0.93585600000000002</v>
+      </c>
+      <c r="E111">
+        <v>1.05159</v>
+      </c>
+      <c r="F111">
+        <v>0.99772799999999995</v>
+      </c>
+      <c r="G111">
+        <v>0.54539599999999999</v>
+      </c>
+      <c r="H111">
+        <v>1.1637310000000001</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>0.61999599999999999</v>
+      </c>
+      <c r="B112">
+        <v>0.52013600000000004</v>
+      </c>
+      <c r="C112">
+        <v>0.52646099999999996</v>
+      </c>
+      <c r="D112">
+        <v>0.50631899999999996</v>
+      </c>
+      <c r="E112">
+        <v>0.51639299999999999</v>
+      </c>
+      <c r="F112">
+        <v>0.52805599999999997</v>
+      </c>
+      <c r="G112">
+        <v>0.52378199999999997</v>
+      </c>
+      <c r="H112">
+        <v>0.53300400000000003</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>0.61805500000000002</v>
+      </c>
+      <c r="B113">
+        <v>0.51571199999999995</v>
+      </c>
+      <c r="C113">
+        <v>0.51964299999999997</v>
+      </c>
+      <c r="D113">
+        <v>0.50647900000000001</v>
+      </c>
+      <c r="E113">
+        <v>0.51190599999999997</v>
+      </c>
+      <c r="F113">
+        <v>0.52977799999999997</v>
+      </c>
+      <c r="G113">
+        <v>0.51772600000000002</v>
+      </c>
+      <c r="H113">
+        <v>0.52921600000000002</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="B114">
+        <v>0.51336199999999999</v>
+      </c>
+      <c r="C114">
+        <v>0.51656299999999999</v>
+      </c>
+      <c r="D114">
+        <v>0.50542900000000002</v>
+      </c>
+      <c r="E114">
+        <v>0.51193</v>
+      </c>
+      <c r="F114">
+        <v>0.52431700000000003</v>
+      </c>
+      <c r="G114">
+        <v>0.53285700000000003</v>
+      </c>
+      <c r="H114">
+        <v>0.52374699999999996</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>0.60347600000000001</v>
+      </c>
+      <c r="B115">
+        <v>0.51646800000000004</v>
+      </c>
+      <c r="C115">
+        <v>0.52796799999999999</v>
+      </c>
+      <c r="D115">
+        <v>0.50601399999999996</v>
+      </c>
+      <c r="E115">
+        <v>0.52442800000000001</v>
+      </c>
+      <c r="F115">
+        <v>0.53825699999999999</v>
+      </c>
+      <c r="G115">
+        <v>0.69372599999999995</v>
+      </c>
+      <c r="H115">
+        <v>0.53041700000000003</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>0.65377600000000002</v>
+      </c>
+      <c r="B116">
+        <v>0.515679</v>
+      </c>
+      <c r="C116">
+        <v>0.51777600000000001</v>
+      </c>
+      <c r="D116">
+        <v>0.50790500000000005</v>
+      </c>
+      <c r="E116">
+        <v>0.51394200000000001</v>
+      </c>
+      <c r="F116">
+        <v>0.52547600000000005</v>
+      </c>
+      <c r="G116">
+        <v>0.52326300000000003</v>
+      </c>
+      <c r="H116">
+        <v>0.52111099999999999</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>0.58732899999999999</v>
+      </c>
+      <c r="B117">
+        <v>0.51151100000000005</v>
+      </c>
+      <c r="C117">
+        <v>0.51317900000000005</v>
+      </c>
+      <c r="D117">
+        <v>0.507386</v>
+      </c>
+      <c r="E117">
+        <v>0.51138899999999998</v>
+      </c>
+      <c r="F117">
+        <v>0.52349800000000002</v>
+      </c>
+      <c r="G117">
+        <v>0.53273499999999996</v>
+      </c>
+      <c r="H117">
+        <v>0.52071800000000001</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>0.65222999999999998</v>
+      </c>
+      <c r="B118">
+        <v>0.52343300000000004</v>
+      </c>
+      <c r="C118">
+        <v>0.52257699999999996</v>
+      </c>
+      <c r="D118">
+        <v>0.51331400000000005</v>
+      </c>
+      <c r="E118">
+        <v>0.51787300000000003</v>
+      </c>
+      <c r="F118">
+        <v>0.54864800000000002</v>
+      </c>
+      <c r="G118">
+        <v>0.53770099999999998</v>
+      </c>
+      <c r="H118">
+        <v>0.53738200000000003</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>0.66139700000000001</v>
+      </c>
+      <c r="B119">
+        <v>0.51591799999999999</v>
+      </c>
+      <c r="C119">
+        <v>0.54706900000000003</v>
+      </c>
+      <c r="D119">
+        <v>0.50836999999999999</v>
+      </c>
+      <c r="E119">
+        <v>0.51589499999999999</v>
+      </c>
+      <c r="F119">
+        <v>0.55557400000000001</v>
+      </c>
+      <c r="G119">
+        <v>0.55224300000000004</v>
+      </c>
+      <c r="H119">
+        <v>0.52537100000000003</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>0.60658599999999996</v>
+      </c>
+      <c r="B120">
+        <v>0.52278199999999997</v>
+      </c>
+      <c r="C120">
+        <v>0.53397600000000001</v>
+      </c>
+      <c r="D120">
+        <v>0.56487100000000001</v>
+      </c>
+      <c r="E120">
+        <v>0.61110399999999998</v>
+      </c>
+      <c r="F120">
+        <v>0.53798999999999997</v>
+      </c>
+      <c r="G120">
+        <v>0.85694999999999999</v>
+      </c>
+      <c r="H120">
+        <v>0.55233399999999999</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>0.59869799999999995</v>
+      </c>
+      <c r="B121">
+        <v>0.517737</v>
+      </c>
+      <c r="C121">
+        <v>0.52407099999999995</v>
+      </c>
+      <c r="D121">
+        <v>0.511405</v>
+      </c>
+      <c r="E121">
+        <v>0.52478999999999998</v>
+      </c>
+      <c r="F121">
+        <v>0.51162200000000002</v>
+      </c>
+      <c r="G121">
+        <v>0.59820600000000002</v>
+      </c>
+      <c r="H121">
+        <v>0.522173</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>0.59335800000000005</v>
+      </c>
+      <c r="B122">
+        <v>0.51171800000000001</v>
+      </c>
+      <c r="C122">
+        <v>0.51660600000000001</v>
+      </c>
+      <c r="D122">
+        <v>0.50762600000000002</v>
+      </c>
+      <c r="E122">
+        <v>0.51224599999999998</v>
+      </c>
+      <c r="F122">
+        <v>0.50836700000000001</v>
+      </c>
+      <c r="G122">
+        <v>0.53861700000000001</v>
+      </c>
+      <c r="H122">
+        <v>0.51851000000000003</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>0.57825499999999996</v>
+      </c>
+      <c r="B123">
+        <v>0.51900400000000002</v>
+      </c>
+      <c r="C123">
+        <v>0.53063199999999999</v>
+      </c>
+      <c r="D123">
+        <v>0.50804099999999996</v>
+      </c>
+      <c r="E123">
+        <v>0.52260200000000001</v>
+      </c>
+      <c r="F123">
+        <v>0.50563800000000003</v>
+      </c>
+      <c r="G123">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="H123">
+        <v>0.51676800000000001</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>0.63289399999999996</v>
+      </c>
+      <c r="B124">
+        <v>0.51433499999999999</v>
+      </c>
+      <c r="C124">
+        <v>0.52151400000000003</v>
+      </c>
+      <c r="D124">
+        <v>0.50588500000000003</v>
+      </c>
+      <c r="E124">
+        <v>0.51220299999999996</v>
+      </c>
+      <c r="F124">
+        <v>0.50802599999999998</v>
+      </c>
+      <c r="G124">
+        <v>0.53051099999999995</v>
+      </c>
+      <c r="H124">
+        <v>0.51556999999999997</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>0.60109599999999996</v>
+      </c>
+      <c r="B125">
+        <v>0.51278299999999999</v>
+      </c>
+      <c r="C125">
+        <v>0.51745399999999997</v>
+      </c>
+      <c r="D125">
+        <v>0.50820399999999999</v>
+      </c>
+      <c r="E125">
+        <v>0.51427800000000001</v>
+      </c>
+      <c r="F125">
+        <v>0.50456900000000005</v>
+      </c>
+      <c r="G125">
+        <v>0.53295400000000004</v>
+      </c>
+      <c r="H125">
+        <v>0.51572300000000004</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>0.68124399999999996</v>
+      </c>
+      <c r="B126">
+        <v>0.51104499999999997</v>
+      </c>
+      <c r="C126">
+        <v>0.52076500000000003</v>
+      </c>
+      <c r="D126">
+        <v>0.52639000000000002</v>
+      </c>
+      <c r="E126">
+        <v>0.51659200000000005</v>
+      </c>
+      <c r="F126">
+        <v>0.50974900000000001</v>
+      </c>
+      <c r="G126">
+        <v>0.55098899999999995</v>
+      </c>
+      <c r="H126">
+        <v>0.520729</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>0.60179000000000005</v>
+      </c>
+      <c r="B127">
+        <v>0.50840700000000005</v>
+      </c>
+      <c r="C127">
+        <v>0.51509199999999999</v>
+      </c>
+      <c r="D127">
+        <v>0.51253199999999999</v>
+      </c>
+      <c r="E127">
+        <v>0.50918600000000003</v>
+      </c>
+      <c r="F127">
+        <v>0.50407299999999999</v>
+      </c>
+      <c r="G127">
+        <v>0.53586900000000004</v>
+      </c>
+      <c r="H127">
+        <v>0.51417100000000004</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>0.60310200000000003</v>
+      </c>
+      <c r="B128">
+        <v>0.50839999999999996</v>
+      </c>
+      <c r="C128">
+        <v>0.51143899999999998</v>
+      </c>
+      <c r="D128">
+        <v>0.51921300000000004</v>
+      </c>
+      <c r="E128">
+        <v>0.50775800000000004</v>
+      </c>
+      <c r="F128">
+        <v>0.50616700000000003</v>
+      </c>
+      <c r="G128">
+        <v>0.52931300000000003</v>
+      </c>
+      <c r="H128">
+        <v>0.50997999999999999</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>0.616456</v>
+      </c>
+      <c r="B129">
+        <v>0.50797099999999995</v>
+      </c>
+      <c r="C129">
+        <v>0.51615100000000003</v>
+      </c>
+      <c r="D129">
+        <v>0.51528099999999999</v>
+      </c>
+      <c r="E129">
+        <v>0.50825200000000004</v>
+      </c>
+      <c r="F129">
+        <v>0.50495599999999996</v>
+      </c>
+      <c r="G129">
+        <v>0.53037699999999999</v>
+      </c>
+      <c r="H129">
+        <v>0.51494399999999996</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>0.62587099999999996</v>
+      </c>
+      <c r="B130">
+        <v>0.51056800000000002</v>
+      </c>
+      <c r="C130">
+        <v>0.51673500000000006</v>
+      </c>
+      <c r="D130">
+        <v>0.52125200000000005</v>
+      </c>
+      <c r="E130">
+        <v>0.51477099999999998</v>
+      </c>
+      <c r="F130">
+        <v>0.50794700000000004</v>
+      </c>
+      <c r="G130">
+        <v>0.57855999999999996</v>
+      </c>
+      <c r="H130">
+        <v>0.51961299999999999</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>0.58351200000000003</v>
+      </c>
+      <c r="B131">
+        <v>0.51227500000000004</v>
+      </c>
+      <c r="C131">
+        <v>0.51960799999999996</v>
+      </c>
+      <c r="D131">
+        <v>0.51368899999999995</v>
+      </c>
+      <c r="E131">
+        <v>0.51163000000000003</v>
+      </c>
+      <c r="F131">
+        <v>0.506915</v>
+      </c>
+      <c r="G131">
+        <v>0.52671500000000004</v>
+      </c>
+      <c r="H131">
+        <v>0.51069299999999995</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>0.59884899999999996</v>
+      </c>
+      <c r="B132">
+        <v>0.50986500000000001</v>
+      </c>
+      <c r="C132">
+        <v>0.513181</v>
+      </c>
+      <c r="D132">
+        <v>0.52135600000000004</v>
+      </c>
+      <c r="E132">
+        <v>0.51250799999999996</v>
+      </c>
+      <c r="F132">
+        <v>0.50561900000000004</v>
+      </c>
+      <c r="G132">
+        <v>0.51769200000000004</v>
+      </c>
+      <c r="H132">
+        <v>0.51047200000000004</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>0.621529</v>
+      </c>
+      <c r="B133">
+        <v>0.52608299999999997</v>
+      </c>
+      <c r="C133">
+        <v>0.81705399999999995</v>
+      </c>
+      <c r="D133">
+        <v>0.53741099999999997</v>
+      </c>
+      <c r="E133">
+        <v>0.51147100000000001</v>
+      </c>
+      <c r="F133">
+        <v>0.55071700000000001</v>
+      </c>
+      <c r="G133">
+        <v>0.55780700000000005</v>
+      </c>
+      <c r="H133">
+        <v>0.69891599999999998</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>0.72984599999999999</v>
+      </c>
+      <c r="B134">
+        <v>0.51259200000000005</v>
+      </c>
+      <c r="C134">
+        <v>0.65006299999999995</v>
+      </c>
+      <c r="D134">
+        <v>0.51213399999999998</v>
+      </c>
+      <c r="E134">
+        <v>0.51316099999999998</v>
+      </c>
+      <c r="F134">
+        <v>0.50989600000000002</v>
+      </c>
+      <c r="G134">
+        <v>0.51592400000000005</v>
+      </c>
+      <c r="H134">
+        <v>0.55134300000000003</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>0.62200299999999997</v>
+      </c>
+      <c r="B135">
+        <v>0.51364500000000002</v>
+      </c>
+      <c r="C135">
+        <v>0.543072</v>
+      </c>
+      <c r="D135">
+        <v>0.50772700000000004</v>
+      </c>
+      <c r="E135">
+        <v>0.50665400000000005</v>
+      </c>
+      <c r="F135">
+        <v>0.50558899999999996</v>
+      </c>
+      <c r="G135">
+        <v>0.51377899999999999</v>
+      </c>
+      <c r="H135">
+        <v>0.54237199999999997</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>0.57775600000000005</v>
+      </c>
+      <c r="B136">
+        <v>0.51870000000000005</v>
+      </c>
+      <c r="C136">
+        <v>0.53202899999999997</v>
+      </c>
+      <c r="D136">
+        <v>0.51902199999999998</v>
+      </c>
+      <c r="E136">
+        <v>0.51025699999999996</v>
+      </c>
+      <c r="F136">
+        <v>0.50625500000000001</v>
+      </c>
+      <c r="G136">
+        <v>0.51744599999999996</v>
+      </c>
+      <c r="H136">
+        <v>0.53966700000000001</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>0.55113999999999996</v>
+      </c>
+      <c r="B137">
+        <v>0.51337100000000002</v>
+      </c>
+      <c r="C137">
+        <v>0.52137800000000001</v>
+      </c>
+      <c r="D137">
+        <v>0.50471600000000005</v>
+      </c>
+      <c r="E137">
+        <v>0.50616700000000003</v>
+      </c>
+      <c r="F137">
+        <v>0.50518099999999999</v>
+      </c>
+      <c r="G137">
+        <v>0.50988299999999998</v>
+      </c>
+      <c r="H137">
+        <v>0.52624700000000002</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>0.57451700000000006</v>
+      </c>
+      <c r="B138">
+        <v>0.51680899999999996</v>
+      </c>
+      <c r="C138">
+        <v>0.51815299999999997</v>
+      </c>
+      <c r="D138">
+        <v>0.50934800000000002</v>
+      </c>
+      <c r="E138">
+        <v>0.50681799999999999</v>
+      </c>
+      <c r="F138">
+        <v>0.50479200000000002</v>
+      </c>
+      <c r="G138">
+        <v>0.50894300000000003</v>
+      </c>
+      <c r="H138">
+        <v>0.52708200000000005</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>0.56206900000000004</v>
+      </c>
+      <c r="B139">
+        <v>0.51729899999999995</v>
+      </c>
+      <c r="C139">
+        <v>0.51649400000000001</v>
+      </c>
+      <c r="D139">
+        <v>0.50480700000000001</v>
+      </c>
+      <c r="E139">
+        <v>0.50672399999999995</v>
+      </c>
+      <c r="F139">
+        <v>0.50475000000000003</v>
+      </c>
+      <c r="G139">
+        <v>0.50800999999999996</v>
+      </c>
+      <c r="H139">
+        <v>0.52567699999999995</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>0.58923400000000004</v>
+      </c>
+      <c r="B140">
+        <v>0.51807499999999995</v>
+      </c>
+      <c r="C140">
+        <v>0.52190700000000001</v>
+      </c>
+      <c r="D140">
+        <v>0.50926800000000005</v>
+      </c>
+      <c r="E140">
+        <v>0.50631199999999998</v>
+      </c>
+      <c r="F140">
+        <v>0.51936000000000004</v>
+      </c>
+      <c r="G140">
+        <v>0.51469600000000004</v>
+      </c>
+      <c r="H140">
+        <v>0.56251099999999998</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>0.55404699999999996</v>
+      </c>
+      <c r="B141">
+        <v>0.51321300000000003</v>
+      </c>
+      <c r="C141">
+        <v>0.51629199999999997</v>
+      </c>
+      <c r="D141">
+        <v>0.50391200000000003</v>
+      </c>
+      <c r="E141">
+        <v>0.50610500000000003</v>
+      </c>
+      <c r="F141">
+        <v>0.50378400000000001</v>
+      </c>
+      <c r="G141">
+        <v>0.50765300000000002</v>
+      </c>
+      <c r="H141">
+        <v>0.51919999999999999</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>0.57808199999999998</v>
+      </c>
+      <c r="B142">
+        <v>0.51597099999999996</v>
+      </c>
+      <c r="C142">
+        <v>0.51959</v>
+      </c>
+      <c r="D142">
+        <v>0.50703299999999996</v>
+      </c>
+      <c r="E142">
+        <v>0.50596600000000003</v>
+      </c>
+      <c r="F142">
+        <v>0.50389799999999996</v>
+      </c>
+      <c r="G142">
+        <v>0.51506200000000002</v>
+      </c>
+      <c r="H142">
+        <v>0.52410699999999999</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>0.55247999999999997</v>
+      </c>
+      <c r="B143">
+        <v>0.513158</v>
+      </c>
+      <c r="C143">
+        <v>0.51803200000000005</v>
+      </c>
+      <c r="D143">
+        <v>0.51058899999999996</v>
+      </c>
+      <c r="E143">
+        <v>0.507822</v>
+      </c>
+      <c r="F143">
+        <v>0.50430799999999998</v>
+      </c>
+      <c r="G143">
+        <v>0.50859100000000002</v>
+      </c>
+      <c r="H143">
+        <v>0.52027999999999996</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0.58671899999999999</v>
+      </c>
+      <c r="B144">
+        <v>0.53239999999999998</v>
+      </c>
+      <c r="C144">
+        <v>0.60997400000000002</v>
+      </c>
+      <c r="D144">
+        <v>0.63535299999999995</v>
+      </c>
+      <c r="E144">
+        <v>0.60141999999999995</v>
+      </c>
+      <c r="F144">
+        <v>0.50555799999999995</v>
+      </c>
+      <c r="G144">
+        <v>0.75325399999999998</v>
+      </c>
+      <c r="H144">
+        <v>0.56491199999999997</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>0.57749399999999995</v>
+      </c>
+      <c r="B145">
+        <v>0.50334999999999996</v>
+      </c>
+      <c r="C145">
+        <v>0.53010800000000002</v>
+      </c>
+      <c r="D145">
+        <v>0.50542699999999996</v>
+      </c>
+      <c r="E145">
+        <v>0.50856100000000004</v>
+      </c>
+      <c r="F145">
+        <v>0.48353800000000002</v>
+      </c>
+      <c r="G145">
+        <v>0.52233799999999997</v>
+      </c>
+      <c r="H145">
+        <v>0.57759000000000005</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>0.57233500000000004</v>
+      </c>
+      <c r="B146">
+        <v>0.51151599999999997</v>
+      </c>
+      <c r="C146">
+        <v>0.51400900000000005</v>
+      </c>
+      <c r="D146">
+        <v>0.50414999999999999</v>
+      </c>
+      <c r="E146">
+        <v>0.50584099999999999</v>
+      </c>
+      <c r="F146">
+        <v>0.50314700000000001</v>
+      </c>
+      <c r="G146">
+        <v>0.50850899999999999</v>
+      </c>
+      <c r="H146">
+        <v>0.51604700000000003</v>
+      </c>
+      <c r="I146">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I117"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="true"/>
+    <col min="2" max="2" width="8.7109375" customWidth="true"/>
+    <col min="3" max="3" width="8.7109375" customWidth="true"/>
+    <col min="4" max="4" width="8.7109375" customWidth="true"/>
+    <col min="5" max="5" width="8.7109375" customWidth="true"/>
+    <col min="6" max="6" width="8.7109375" customWidth="true"/>
+    <col min="7" max="7" width="8.7109375" customWidth="true"/>
+    <col min="8" max="8" width="8.7109375" customWidth="true"/>
+    <col min="9" max="9" width="2.15625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>0.58232399999999995</v>
+      </c>
+      <c r="B1" s="0">
+        <v>0.50858000000000003</v>
+      </c>
+      <c r="C1" s="0">
+        <v>0.52448600000000001</v>
+      </c>
+      <c r="D1" s="0">
+        <v>0.50905500000000004</v>
+      </c>
+      <c r="E1" s="0">
+        <v>0.522007</v>
+      </c>
+      <c r="F1" s="0">
+        <v>0.52863000000000004</v>
+      </c>
+      <c r="G1" s="0">
+        <v>0.52012599999999998</v>
+      </c>
+      <c r="H1" s="0">
+        <v>0.51647100000000001</v>
+      </c>
+      <c r="I1" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>0.52799600000000002</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.54410800000000004</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.57413400000000003</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.53859100000000004</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.53127400000000002</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.53032000000000001</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.54627599999999998</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.55649599999999999</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.57128699999999999</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.510598</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.52438600000000002</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.51029899999999995</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.52269399999999999</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.52605000000000002</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.51671</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.51276600000000006</v>
+      </c>
+      <c r="I3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.53886500000000004</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.55931299999999995</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.701816</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.52945500000000001</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.52435600000000004</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.54427499999999995</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.59917399999999998</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.57450800000000002</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.51580700000000002</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.51293500000000003</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.62437699999999996</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.52613500000000002</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.53278000000000003</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.41090100000000002</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.55223100000000003</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.582376</v>
+      </c>
+      <c r="I5" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.58918599999999999</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.515486</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.51854699999999998</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.50722299999999998</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.50865199999999999</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.52086500000000002</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.52305800000000002</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.52328300000000005</v>
+      </c>
+      <c r="I6" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.76615200000000006</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.51383100000000004</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.51341400000000004</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.50912100000000005</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.53438699999999995</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.51892700000000003</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.51174500000000001</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0.53880399999999995</v>
+      </c>
+      <c r="I7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.58671899999999999</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.53239999999999998</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.60997400000000002</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.63535299999999995</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.60141999999999995</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.50555799999999995</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0.75325399999999998</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0.56491199999999997</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.59267300000000001</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.531609</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.53517199999999998</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.53733299999999995</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.53134999999999999</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.57328599999999996</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0.54399900000000001</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0.54767699999999997</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.53984200000000004</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.55601199999999995</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.59621500000000005</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.52661899999999995</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.56132899999999997</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.59618899999999997</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.58140599999999998</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0.58917200000000003</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.58211199999999996</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.55018100000000003</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.55273700000000003</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.555871</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.60958199999999996</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.55587399999999998</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0.58372400000000002</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.59306499999999995</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.56622300000000003</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.55761700000000003</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.57756300000000005</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.55197399999999996</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.63925500000000002</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0.57803800000000005</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.60823199999999999</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.531501</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.53301100000000001</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.59006099999999995</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.58012799999999998</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.52667200000000003</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.52317199999999997</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.53194900000000001</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.554674</v>
+      </c>
+      <c r="I13" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.58521999999999996</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.51127900000000004</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.53440200000000004</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.50764699999999996</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.52656999999999998</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.53392300000000004</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.52165600000000001</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.52301299999999995</v>
+      </c>
+      <c r="I14" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.62587099999999996</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.51056800000000002</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0.51673500000000006</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.52125200000000005</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.51477099999999998</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.50794700000000004</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.57855999999999996</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0.51961299999999999</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.53476699999999999</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.54017700000000002</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.58343100000000003</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.52904399999999996</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.55889100000000003</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.56647199999999998</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0.599688</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0.56381899999999996</v>
+      </c>
+      <c r="I16" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.60658599999999996</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.52278199999999997</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0.53397600000000001</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.56487100000000001</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.61110399999999998</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.53798999999999997</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0.85694999999999999</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0.55233399999999999</v>
+      </c>
+      <c r="I17" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.51934999999999998</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.54792300000000005</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.59435400000000005</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.53013399999999999</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.53434599999999999</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.55280300000000004</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0.57490600000000003</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.58629299999999995</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.56084599999999996</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.51039400000000001</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0.56408199999999997</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.50742900000000002</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.51606099999999999</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.512513</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0.52179200000000003</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.51740799999999998</v>
+      </c>
+      <c r="I19" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.58147099999999996</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.54977699999999996</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0.54246700000000003</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.55503199999999997</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.55184599999999995</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.610684</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0.55696000000000001</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.57854000000000005</v>
+      </c>
+      <c r="I20" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.59884899999999996</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.50986500000000001</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0.513181</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.52135600000000004</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.51250799999999996</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0.50561900000000004</v>
+      </c>
+      <c r="G21" s="0">
+        <v>0.51769200000000004</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.51047200000000004</v>
+      </c>
+      <c r="I21" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.63544100000000003</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.53266000000000002</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0.56391000000000002</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0.516266</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.517652</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.52718299999999996</v>
+      </c>
+      <c r="G22" s="0">
+        <v>0.56379800000000002</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.53455200000000003</v>
+      </c>
+      <c r="I22" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.54773000000000005</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.51127100000000003</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0.523231</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.51128200000000001</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.51959</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0.52519899999999997</v>
+      </c>
+      <c r="G23" s="0">
+        <v>0.52360799999999996</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.50765099999999996</v>
+      </c>
+      <c r="I23" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.53892700000000004</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.56346499999999999</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0.59553900000000004</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.52405000000000002</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.57239799999999996</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0.58013999999999999</v>
+      </c>
+      <c r="G24" s="0">
+        <v>0.58301999999999998</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0.56886800000000004</v>
+      </c>
+      <c r="I24" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.54726200000000003</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.53391</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0.54446799999999995</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.51127100000000003</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.54469199999999995</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.52170399999999995</v>
+      </c>
+      <c r="G25" s="0">
+        <v>0.53365899999999999</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.52469200000000005</v>
+      </c>
+      <c r="I25" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.52679699999999996</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.55810199999999999</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0.63199799999999995</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.53459199999999996</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.54067299999999996</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.55125400000000002</v>
+      </c>
+      <c r="G26" s="0">
+        <v>0.58882999999999996</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0.61993399999999999</v>
+      </c>
+      <c r="I26" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.56198800000000004</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.56896100000000005</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0.56411100000000003</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.56647999999999998</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.59389999999999998</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.64063400000000004</v>
+      </c>
+      <c r="G27" s="0">
+        <v>0.57338599999999995</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.60334699999999997</v>
+      </c>
+      <c r="I27" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.60170100000000004</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.51114599999999999</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0.53287899999999999</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.50848199999999999</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0.523312</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0.526972</v>
+      </c>
+      <c r="G28" s="0">
+        <v>0.52070300000000003</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.518598</v>
+      </c>
+      <c r="I28" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.60179000000000005</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0.50840700000000005</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0.51509199999999999</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0.51253199999999999</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.50918600000000003</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0.50407299999999999</v>
+      </c>
+      <c r="G29" s="0">
+        <v>0.53586900000000004</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0.51417100000000004</v>
+      </c>
+      <c r="I29" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.59052199999999999</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.50942500000000002</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0.51083199999999995</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0.50642699999999996</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.51039800000000002</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0.50966400000000001</v>
+      </c>
+      <c r="G30" s="0">
+        <v>0.50845799999999997</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0.51567600000000002</v>
+      </c>
+      <c r="I30" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.56489699999999998</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.60138999999999998</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0.60553000000000001</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.58057199999999998</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.58229600000000004</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0.60507999999999995</v>
+      </c>
+      <c r="G31" s="0">
+        <v>0.62942600000000004</v>
+      </c>
+      <c r="H31" s="0">
+        <v>0.62977399999999994</v>
+      </c>
+      <c r="I31" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.61053299999999999</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0.51620200000000005</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0.51471100000000003</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.50870199999999999</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0.51045700000000005</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0.51394799999999996</v>
+      </c>
+      <c r="G32" s="0">
+        <v>0.52293599999999996</v>
+      </c>
+      <c r="H32" s="0">
+        <v>0.51405999999999996</v>
+      </c>
+      <c r="I32" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>1.2430840000000001</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0.57996199999999998</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0.58718000000000004</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0.53212999999999999</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.55518500000000004</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0.602437</v>
+      </c>
+      <c r="G33" s="0">
+        <v>0.61797500000000005</v>
+      </c>
+      <c r="H33" s="0">
+        <v>0.55352100000000004</v>
+      </c>
+      <c r="I33" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.77044800000000002</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0.510347</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0.50822400000000001</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0.50645700000000005</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0.54962999999999995</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0.51391900000000001</v>
+      </c>
+      <c r="G34" s="0">
+        <v>0.50838899999999998</v>
+      </c>
+      <c r="H34" s="0">
+        <v>0.52690199999999998</v>
+      </c>
+      <c r="I34" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>1.2359629999999999</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0.98001099999999997</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0.98244500000000001</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.93585600000000002</v>
+      </c>
+      <c r="E35" s="0">
+        <v>1.05159</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0.99772799999999995</v>
+      </c>
+      <c r="G35" s="0">
+        <v>0.54539599999999999</v>
+      </c>
+      <c r="H35" s="0">
+        <v>1.1637310000000001</v>
+      </c>
+      <c r="I35" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.54626200000000003</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0.504556</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0.51733399999999996</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.51005</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0.51190800000000003</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0.52468700000000001</v>
+      </c>
+      <c r="G36" s="0">
+        <v>0.51834000000000002</v>
+      </c>
+      <c r="H36" s="0">
+        <v>0.50860099999999997</v>
+      </c>
+      <c r="I36" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.578183</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0.50903399999999999</v>
+      </c>
+      <c r="C37" s="0">
+        <v>0.51000800000000002</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0.50797899999999996</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0.51099799999999995</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0.50714700000000001</v>
+      </c>
+      <c r="G37" s="0">
+        <v>0.50653800000000004</v>
+      </c>
+      <c r="H37" s="0">
+        <v>0.51818500000000001</v>
+      </c>
+      <c r="I37" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.58618599999999998</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0.52542</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0.53000700000000001</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0.50845899999999999</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0.51812499999999995</v>
+      </c>
+      <c r="F38" s="0">
+        <v>0.54248499999999999</v>
+      </c>
+      <c r="G38" s="0">
+        <v>0.53194399999999997</v>
+      </c>
+      <c r="H38" s="0">
+        <v>0.51944500000000005</v>
+      </c>
+      <c r="I38" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.56808199999999998</v>
+      </c>
+      <c r="B39" s="0">
+        <v>0.51707599999999998</v>
+      </c>
+      <c r="C39" s="0">
+        <v>0.52609300000000003</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0.50792999999999999</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0.51356299999999999</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0.52343799999999996</v>
+      </c>
+      <c r="G39" s="0">
+        <v>0.52471800000000002</v>
+      </c>
+      <c r="H39" s="0">
+        <v>0.52063700000000002</v>
+      </c>
+      <c r="I39" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0.52843300000000004</v>
+      </c>
+      <c r="C40" s="0">
+        <v>0.57148500000000002</v>
+      </c>
+      <c r="D40" s="0">
+        <v>0.54277699999999995</v>
+      </c>
+      <c r="E40" s="0">
+        <v>0.52133300000000005</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0.51911300000000005</v>
+      </c>
+      <c r="G40" s="0">
+        <v>0.53233900000000001</v>
+      </c>
+      <c r="H40" s="0">
+        <v>0.54371000000000003</v>
+      </c>
+      <c r="I40" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.561554</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0.50727500000000003</v>
+      </c>
+      <c r="C41" s="0">
+        <v>0.51804399999999995</v>
+      </c>
+      <c r="D41" s="0">
+        <v>0.50481500000000001</v>
+      </c>
+      <c r="E41" s="0">
+        <v>0.51131700000000002</v>
+      </c>
+      <c r="F41" s="0">
+        <v>0.51022900000000004</v>
+      </c>
+      <c r="G41" s="0">
+        <v>0.51668000000000003</v>
+      </c>
+      <c r="H41" s="0">
+        <v>0.51443499999999998</v>
+      </c>
+      <c r="I41" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.571716</v>
+      </c>
+      <c r="B42" s="0">
+        <v>0.50889200000000001</v>
+      </c>
+      <c r="C42" s="0">
+        <v>0.55860500000000002</v>
+      </c>
+      <c r="D42" s="0">
+        <v>0.51052399999999998</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0.53317899999999996</v>
+      </c>
+      <c r="F42" s="0">
+        <v>0.54207499999999997</v>
+      </c>
+      <c r="G42" s="0">
+        <v>0.53004200000000001</v>
+      </c>
+      <c r="H42" s="0">
+        <v>0.52504499999999998</v>
+      </c>
+      <c r="I42" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.616456</v>
+      </c>
+      <c r="B43" s="0">
+        <v>0.50797099999999995</v>
+      </c>
+      <c r="C43" s="0">
+        <v>0.51615100000000003</v>
+      </c>
+      <c r="D43" s="0">
+        <v>0.51528099999999999</v>
+      </c>
+      <c r="E43" s="0">
+        <v>0.50825200000000004</v>
+      </c>
+      <c r="F43" s="0">
+        <v>0.50495599999999996</v>
+      </c>
+      <c r="G43" s="0">
+        <v>0.53037699999999999</v>
+      </c>
+      <c r="H43" s="0">
+        <v>0.51494399999999996</v>
+      </c>
+      <c r="I43" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.57612699999999994</v>
+      </c>
+      <c r="B44" s="0">
+        <v>0.51121700000000003</v>
+      </c>
+      <c r="C44" s="0">
+        <v>0.52652500000000002</v>
+      </c>
+      <c r="D44" s="0">
+        <v>0.51021399999999995</v>
+      </c>
+      <c r="E44" s="0">
+        <v>0.52430900000000003</v>
+      </c>
+      <c r="F44" s="0">
+        <v>0.53461000000000003</v>
+      </c>
+      <c r="G44" s="0">
+        <v>0.51743099999999997</v>
+      </c>
+      <c r="H44" s="0">
+        <v>0.51526000000000005</v>
+      </c>
+      <c r="I44" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.65377600000000002</v>
+      </c>
+      <c r="B45" s="0">
+        <v>0.515679</v>
+      </c>
+      <c r="C45" s="0">
+        <v>0.51777600000000001</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0.50790500000000005</v>
+      </c>
+      <c r="E45" s="0">
+        <v>0.51394200000000001</v>
+      </c>
+      <c r="F45" s="0">
+        <v>0.52547600000000005</v>
+      </c>
+      <c r="G45" s="0">
+        <v>0.52326300000000003</v>
+      </c>
+      <c r="H45" s="0">
+        <v>0.52111099999999999</v>
+      </c>
+      <c r="I45" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.53681900000000005</v>
+      </c>
+      <c r="B46" s="0">
+        <v>0.56087500000000001</v>
+      </c>
+      <c r="C46" s="0">
+        <v>0.65141400000000005</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0.52640799999999999</v>
+      </c>
+      <c r="E46" s="0">
+        <v>0.54295199999999999</v>
+      </c>
+      <c r="F46" s="0">
+        <v>0.54318200000000005</v>
+      </c>
+      <c r="G46" s="0">
+        <v>0.59517200000000003</v>
+      </c>
+      <c r="H46" s="0">
+        <v>0.59319599999999995</v>
+      </c>
+      <c r="I46" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.63086200000000003</v>
+      </c>
+      <c r="B47" s="0">
+        <v>0.51987000000000005</v>
+      </c>
+      <c r="C47" s="0">
+        <v>0.51879900000000001</v>
+      </c>
+      <c r="D47" s="0">
+        <v>0.509629</v>
+      </c>
+      <c r="E47" s="0">
+        <v>0.51209899999999997</v>
+      </c>
+      <c r="F47" s="0">
+        <v>0.51301300000000005</v>
+      </c>
+      <c r="G47" s="0">
+        <v>0.53428900000000001</v>
+      </c>
+      <c r="H47" s="0">
+        <v>0.516957</v>
+      </c>
+      <c r="I47" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.56206900000000004</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0.51729899999999995</v>
+      </c>
+      <c r="C48" s="0">
+        <v>0.51649400000000001</v>
+      </c>
+      <c r="D48" s="0">
+        <v>0.50480700000000001</v>
+      </c>
+      <c r="E48" s="0">
+        <v>0.50672399999999995</v>
+      </c>
+      <c r="F48" s="0">
+        <v>0.50475000000000003</v>
+      </c>
+      <c r="G48" s="0">
+        <v>0.50800999999999996</v>
+      </c>
+      <c r="H48" s="0">
+        <v>0.52567699999999995</v>
+      </c>
+      <c r="I48" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.557222</v>
+      </c>
+      <c r="B49" s="0">
+        <v>0.51279200000000003</v>
+      </c>
+      <c r="C49" s="0">
+        <v>0.52990099999999996</v>
+      </c>
+      <c r="D49" s="0">
+        <v>0.50614400000000004</v>
+      </c>
+      <c r="E49" s="0">
+        <v>0.53722199999999998</v>
+      </c>
+      <c r="F49" s="0">
+        <v>0.520428</v>
+      </c>
+      <c r="G49" s="0">
+        <v>0.53600599999999998</v>
+      </c>
+      <c r="H49" s="0">
+        <v>0.51825699999999997</v>
+      </c>
+      <c r="I49" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.55935900000000005</v>
+      </c>
+      <c r="B50" s="0">
+        <v>0.51140699999999994</v>
+      </c>
+      <c r="C50" s="0">
+        <v>0.52279399999999998</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0.50490500000000005</v>
+      </c>
+      <c r="E50" s="0">
+        <v>0.509857</v>
+      </c>
+      <c r="F50" s="0">
+        <v>0.51424700000000001</v>
+      </c>
+      <c r="G50" s="0">
+        <v>0.52346400000000004</v>
+      </c>
+      <c r="H50" s="0">
+        <v>0.51791100000000001</v>
+      </c>
+      <c r="I50" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.59284700000000001</v>
+      </c>
+      <c r="B51" s="0">
+        <v>0.51063999999999998</v>
+      </c>
+      <c r="C51" s="0">
+        <v>0.50833499999999998</v>
+      </c>
+      <c r="D51" s="0">
+        <v>0.50652299999999995</v>
+      </c>
+      <c r="E51" s="0">
+        <v>0.51084499999999999</v>
+      </c>
+      <c r="F51" s="0">
+        <v>0.51059100000000002</v>
+      </c>
+      <c r="G51" s="0">
+        <v>0.50694600000000001</v>
+      </c>
+      <c r="H51" s="0">
+        <v>0.51448099999999997</v>
+      </c>
+      <c r="I51" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.54191</v>
+      </c>
+      <c r="B52" s="0">
+        <v>0.52091299999999996</v>
+      </c>
+      <c r="C52" s="0">
+        <v>0.53803500000000004</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0.57922099999999999</v>
+      </c>
+      <c r="E52" s="0">
+        <v>0.53833299999999995</v>
+      </c>
+      <c r="F52" s="0">
+        <v>0.56534499999999999</v>
+      </c>
+      <c r="G52" s="0">
+        <v>0.55413699999999999</v>
+      </c>
+      <c r="H52" s="0">
+        <v>0.551867</v>
+      </c>
+      <c r="I52" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.59690600000000005</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0.56514299999999995</v>
+      </c>
+      <c r="C53" s="0">
+        <v>0.56559800000000005</v>
+      </c>
+      <c r="D53" s="0">
+        <v>0.56859300000000002</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0.555199</v>
+      </c>
+      <c r="F53" s="0">
+        <v>0.62675099999999995</v>
+      </c>
+      <c r="G53" s="0">
+        <v>0.59255400000000003</v>
+      </c>
+      <c r="H53" s="0">
+        <v>0.60988600000000004</v>
+      </c>
+      <c r="I53" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.56532199999999999</v>
+      </c>
+      <c r="B54" s="0">
+        <v>0.51221399999999995</v>
+      </c>
+      <c r="C54" s="0">
+        <v>0.52289300000000005</v>
+      </c>
+      <c r="D54" s="0">
+        <v>0.51088500000000003</v>
+      </c>
+      <c r="E54" s="0">
+        <v>0.51997499999999997</v>
+      </c>
+      <c r="F54" s="0">
+        <v>0.52119099999999996</v>
+      </c>
+      <c r="G54" s="0">
+        <v>0.51986299999999996</v>
+      </c>
+      <c r="H54" s="0">
+        <v>0.50918699999999995</v>
+      </c>
+      <c r="I54" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.57808199999999998</v>
+      </c>
+      <c r="B55" s="0">
+        <v>0.51597099999999996</v>
+      </c>
+      <c r="C55" s="0">
+        <v>0.51959</v>
+      </c>
+      <c r="D55" s="0">
+        <v>0.50703299999999996</v>
+      </c>
+      <c r="E55" s="0">
+        <v>0.50596600000000003</v>
+      </c>
+      <c r="F55" s="0">
+        <v>0.50389799999999996</v>
+      </c>
+      <c r="G55" s="0">
+        <v>0.51506200000000002</v>
+      </c>
+      <c r="H55" s="0">
+        <v>0.52410699999999999</v>
+      </c>
+      <c r="I55" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.60451999999999995</v>
+      </c>
+      <c r="B56" s="0">
+        <v>0.50662099999999999</v>
+      </c>
+      <c r="C56" s="0">
+        <v>0.50794399999999995</v>
+      </c>
+      <c r="D56" s="0">
+        <v>0.50588599999999995</v>
+      </c>
+      <c r="E56" s="0">
+        <v>0.513517</v>
+      </c>
+      <c r="F56" s="0">
+        <v>0.50866400000000001</v>
+      </c>
+      <c r="G56" s="0">
+        <v>0.50391799999999998</v>
+      </c>
+      <c r="H56" s="0">
+        <v>0.515517</v>
+      </c>
+      <c r="I56" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.57233500000000004</v>
+      </c>
+      <c r="B57" s="0">
+        <v>0.51151599999999997</v>
+      </c>
+      <c r="C57" s="0">
+        <v>0.51400900000000005</v>
+      </c>
+      <c r="D57" s="0">
+        <v>0.50414999999999999</v>
+      </c>
+      <c r="E57" s="0">
+        <v>0.50584099999999999</v>
+      </c>
+      <c r="F57" s="0">
+        <v>0.50314700000000001</v>
+      </c>
+      <c r="G57" s="0">
+        <v>0.50850899999999999</v>
+      </c>
+      <c r="H57" s="0">
+        <v>0.51604700000000003</v>
+      </c>
+      <c r="I57" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.655721</v>
+      </c>
+      <c r="B58" s="0">
+        <v>0.50803399999999999</v>
+      </c>
+      <c r="C58" s="0">
+        <v>0.50844999999999996</v>
+      </c>
+      <c r="D58" s="0">
+        <v>0.506517</v>
+      </c>
+      <c r="E58" s="0">
+        <v>0.51258899999999996</v>
+      </c>
+      <c r="F58" s="0">
+        <v>0.51094700000000004</v>
+      </c>
+      <c r="G58" s="0">
+        <v>0.50542600000000004</v>
+      </c>
+      <c r="H58" s="0">
+        <v>0.516849</v>
+      </c>
+      <c r="I58" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.61999599999999999</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0.52013600000000004</v>
+      </c>
+      <c r="C59" s="0">
+        <v>0.52646099999999996</v>
+      </c>
+      <c r="D59" s="0">
+        <v>0.50631899999999996</v>
+      </c>
+      <c r="E59" s="0">
+        <v>0.51639299999999999</v>
+      </c>
+      <c r="F59" s="0">
+        <v>0.52805599999999997</v>
+      </c>
+      <c r="G59" s="0">
+        <v>0.52378199999999997</v>
+      </c>
+      <c r="H59" s="0">
+        <v>0.53300400000000003</v>
+      </c>
+      <c r="I59" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.55404699999999996</v>
+      </c>
+      <c r="B60" s="0">
+        <v>0.51321300000000003</v>
+      </c>
+      <c r="C60" s="0">
+        <v>0.51629199999999997</v>
+      </c>
+      <c r="D60" s="0">
+        <v>0.50391200000000003</v>
+      </c>
+      <c r="E60" s="0">
+        <v>0.50610500000000003</v>
+      </c>
+      <c r="F60" s="0">
+        <v>0.50378400000000001</v>
+      </c>
+      <c r="G60" s="0">
+        <v>0.50765300000000002</v>
+      </c>
+      <c r="H60" s="0">
+        <v>0.51919999999999999</v>
+      </c>
+      <c r="I60" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.57451700000000006</v>
+      </c>
+      <c r="B61" s="0">
+        <v>0.51680899999999996</v>
+      </c>
+      <c r="C61" s="0">
+        <v>0.51815299999999997</v>
+      </c>
+      <c r="D61" s="0">
+        <v>0.50934800000000002</v>
+      </c>
+      <c r="E61" s="0">
+        <v>0.50681799999999999</v>
+      </c>
+      <c r="F61" s="0">
+        <v>0.50479200000000002</v>
+      </c>
+      <c r="G61" s="0">
+        <v>0.50894300000000003</v>
+      </c>
+      <c r="H61" s="0">
+        <v>0.52708200000000005</v>
+      </c>
+      <c r="I61" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>0.54550600000000005</v>
+      </c>
+      <c r="B62" s="0">
+        <v>0.50669299999999995</v>
+      </c>
+      <c r="C62" s="0">
+        <v>0.52053700000000003</v>
+      </c>
+      <c r="D62" s="0">
+        <v>0.51055399999999995</v>
+      </c>
+      <c r="E62" s="0">
+        <v>0.51455399999999996</v>
+      </c>
+      <c r="F62" s="0">
+        <v>0.51849500000000004</v>
+      </c>
+      <c r="G62" s="0">
+        <v>0.52181500000000003</v>
+      </c>
+      <c r="H62" s="0">
+        <v>0.50770400000000004</v>
+      </c>
+      <c r="I62" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>0.60310200000000003</v>
+      </c>
+      <c r="B63" s="0">
+        <v>0.50839999999999996</v>
+      </c>
+      <c r="C63" s="0">
+        <v>0.51143899999999998</v>
+      </c>
+      <c r="D63" s="0">
+        <v>0.51921300000000004</v>
+      </c>
+      <c r="E63" s="0">
+        <v>0.50775800000000004</v>
+      </c>
+      <c r="F63" s="0">
+        <v>0.50616700000000003</v>
+      </c>
+      <c r="G63" s="0">
+        <v>0.52931300000000003</v>
+      </c>
+      <c r="H63" s="0">
+        <v>0.50997999999999999</v>
+      </c>
+      <c r="I63" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>0.59335800000000005</v>
+      </c>
+      <c r="B64" s="0">
+        <v>0.51171800000000001</v>
+      </c>
+      <c r="C64" s="0">
+        <v>0.51660600000000001</v>
+      </c>
+      <c r="D64" s="0">
+        <v>0.50762600000000002</v>
+      </c>
+      <c r="E64" s="0">
+        <v>0.51224599999999998</v>
+      </c>
+      <c r="F64" s="0">
+        <v>0.50836700000000001</v>
+      </c>
+      <c r="G64" s="0">
+        <v>0.53861700000000001</v>
+      </c>
+      <c r="H64" s="0">
+        <v>0.51851000000000003</v>
+      </c>
+      <c r="I64" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>0.56303199999999998</v>
+      </c>
+      <c r="B65" s="0">
+        <v>0.51041099999999995</v>
+      </c>
+      <c r="C65" s="0">
+        <v>0.52188500000000004</v>
+      </c>
+      <c r="D65" s="0">
+        <v>0.50620399999999999</v>
+      </c>
+      <c r="E65" s="0">
+        <v>0.51341899999999996</v>
+      </c>
+      <c r="F65" s="0">
+        <v>0.51235200000000003</v>
+      </c>
+      <c r="G65" s="0">
+        <v>0.516818</v>
+      </c>
+      <c r="H65" s="0">
+        <v>0.51736199999999999</v>
+      </c>
+      <c r="I65" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>0.57749399999999995</v>
+      </c>
+      <c r="B66" s="0">
+        <v>0.50334999999999996</v>
+      </c>
+      <c r="C66" s="0">
+        <v>0.53010800000000002</v>
+      </c>
+      <c r="D66" s="0">
+        <v>0.50542699999999996</v>
+      </c>
+      <c r="E66" s="0">
+        <v>0.50856100000000004</v>
+      </c>
+      <c r="F66" s="0">
+        <v>0.48353800000000002</v>
+      </c>
+      <c r="G66" s="0">
+        <v>0.52233799999999997</v>
+      </c>
+      <c r="H66" s="0">
+        <v>0.57759000000000005</v>
+      </c>
+      <c r="I66" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>0.69674800000000003</v>
+      </c>
+      <c r="B67" s="0">
+        <v>0.50796200000000002</v>
+      </c>
+      <c r="C67" s="0">
+        <v>0.50529000000000002</v>
+      </c>
+      <c r="D67" s="0">
+        <v>0.50620699999999996</v>
+      </c>
+      <c r="E67" s="0">
+        <v>0.51511099999999999</v>
+      </c>
+      <c r="F67" s="0">
+        <v>0.51277499999999998</v>
+      </c>
+      <c r="G67" s="0">
+        <v>0.50547799999999998</v>
+      </c>
+      <c r="H67" s="0">
+        <v>0.51632999999999996</v>
+      </c>
+      <c r="I67" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>0.55015499999999995</v>
+      </c>
+      <c r="B68" s="0">
+        <v>0.50849500000000003</v>
+      </c>
+      <c r="C68" s="0">
+        <v>0.51878199999999997</v>
+      </c>
+      <c r="D68" s="0">
+        <v>0.50570300000000001</v>
+      </c>
+      <c r="E68" s="0">
+        <v>0.51619999999999999</v>
+      </c>
+      <c r="F68" s="0">
+        <v>0.51837100000000003</v>
+      </c>
+      <c r="G68" s="0">
+        <v>0.51914499999999997</v>
+      </c>
+      <c r="H68" s="0">
+        <v>0.51403299999999996</v>
+      </c>
+      <c r="I68" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>0.58318700000000001</v>
+      </c>
+      <c r="B69" s="0">
+        <v>0.50779700000000005</v>
+      </c>
+      <c r="C69" s="0">
+        <v>0.51916700000000005</v>
+      </c>
+      <c r="D69" s="0">
+        <v>0.51154100000000002</v>
+      </c>
+      <c r="E69" s="0">
+        <v>0.51916399999999996</v>
+      </c>
+      <c r="F69" s="0">
+        <v>0.52721300000000004</v>
+      </c>
+      <c r="G69" s="0">
+        <v>0.51502400000000004</v>
+      </c>
+      <c r="H69" s="0">
+        <v>0.51211600000000002</v>
+      </c>
+      <c r="I69" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>0.61805500000000002</v>
+      </c>
+      <c r="B70" s="0">
+        <v>0.51571199999999995</v>
+      </c>
+      <c r="C70" s="0">
+        <v>0.51964299999999997</v>
+      </c>
+      <c r="D70" s="0">
+        <v>0.50647900000000001</v>
+      </c>
+      <c r="E70" s="0">
+        <v>0.51190599999999997</v>
+      </c>
+      <c r="F70" s="0">
+        <v>0.52977799999999997</v>
+      </c>
+      <c r="G70" s="0">
+        <v>0.51772600000000002</v>
+      </c>
+      <c r="H70" s="0">
+        <v>0.52921600000000002</v>
+      </c>
+      <c r="I70" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>0.78188800000000003</v>
+      </c>
+      <c r="B71" s="0">
+        <v>0.50851400000000002</v>
+      </c>
+      <c r="C71" s="0">
+        <v>0.50643400000000005</v>
+      </c>
+      <c r="D71" s="0">
+        <v>0.50704499999999997</v>
+      </c>
+      <c r="E71" s="0">
+        <v>0.52388100000000004</v>
+      </c>
+      <c r="F71" s="0">
+        <v>0.516629</v>
+      </c>
+      <c r="G71" s="0">
+        <v>0.50561100000000003</v>
+      </c>
+      <c r="H71" s="0">
+        <v>0.51899600000000001</v>
+      </c>
+      <c r="I71" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>0.53242299999999998</v>
+      </c>
+      <c r="B72" s="0">
+        <v>0.54177600000000004</v>
+      </c>
+      <c r="C72" s="0">
+        <v>0.56023500000000004</v>
+      </c>
+      <c r="D72" s="0">
+        <v>0.50473299999999999</v>
+      </c>
+      <c r="E72" s="0">
+        <v>0.53228500000000001</v>
+      </c>
+      <c r="F72" s="0">
+        <v>0.52297199999999999</v>
+      </c>
+      <c r="G72" s="0">
+        <v>0.52788599999999997</v>
+      </c>
+      <c r="H72" s="0">
+        <v>0.55287699999999995</v>
+      </c>
+      <c r="I72" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>0.56258300000000006</v>
+      </c>
+      <c r="B73" s="0">
+        <v>0.55094299999999996</v>
+      </c>
+      <c r="C73" s="0">
+        <v>0.54459000000000002</v>
+      </c>
+      <c r="D73" s="0">
+        <v>0.54962800000000001</v>
+      </c>
+      <c r="E73" s="0">
+        <v>0.55176099999999995</v>
+      </c>
+      <c r="F73" s="0">
+        <v>0.59668399999999999</v>
+      </c>
+      <c r="G73" s="0">
+        <v>0.56114900000000001</v>
+      </c>
+      <c r="H73" s="0">
+        <v>0.56989500000000004</v>
+      </c>
+      <c r="I73" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>0.59945300000000001</v>
+      </c>
+      <c r="B74" s="0">
+        <v>0.55157500000000004</v>
+      </c>
+      <c r="C74" s="0">
+        <v>0.54619099999999998</v>
+      </c>
+      <c r="D74" s="0">
+        <v>0.56521100000000002</v>
+      </c>
+      <c r="E74" s="0">
+        <v>0.54761599999999999</v>
+      </c>
+      <c r="F74" s="0">
+        <v>0.62153400000000003</v>
+      </c>
+      <c r="G74" s="0">
+        <v>0.56378099999999998</v>
+      </c>
+      <c r="H74" s="0">
+        <v>0.59540599999999999</v>
+      </c>
+      <c r="I74" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>0.59514999999999996</v>
+      </c>
+      <c r="B75" s="0">
+        <v>0.508297</v>
+      </c>
+      <c r="C75" s="0">
+        <v>0.51024700000000001</v>
+      </c>
+      <c r="D75" s="0">
+        <v>0.50609400000000004</v>
+      </c>
+      <c r="E75" s="0">
+        <v>0.512822</v>
+      </c>
+      <c r="F75" s="0">
+        <v>0.50989899999999999</v>
+      </c>
+      <c r="G75" s="0">
+        <v>0.50553400000000004</v>
+      </c>
+      <c r="H75" s="0">
+        <v>0.51334299999999999</v>
+      </c>
+      <c r="I75" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>0.60347600000000001</v>
+      </c>
+      <c r="B76" s="0">
+        <v>0.51646800000000004</v>
+      </c>
+      <c r="C76" s="0">
+        <v>0.52796799999999999</v>
+      </c>
+      <c r="D76" s="0">
+        <v>0.50601399999999996</v>
+      </c>
+      <c r="E76" s="0">
+        <v>0.52442800000000001</v>
+      </c>
+      <c r="F76" s="0">
+        <v>0.53825699999999999</v>
+      </c>
+      <c r="G76" s="0">
+        <v>0.69372599999999995</v>
+      </c>
+      <c r="H76" s="0">
+        <v>0.53041700000000003</v>
+      </c>
+      <c r="I76" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>0.58549200000000001</v>
+      </c>
+      <c r="B77" s="0">
+        <v>0.51083100000000004</v>
+      </c>
+      <c r="C77" s="0">
+        <v>0.52608500000000002</v>
+      </c>
+      <c r="D77" s="0">
+        <v>0.50939800000000002</v>
+      </c>
+      <c r="E77" s="0">
+        <v>0.52406200000000003</v>
+      </c>
+      <c r="F77" s="0">
+        <v>0.53376699999999999</v>
+      </c>
+      <c r="G77" s="0">
+        <v>0.52164500000000003</v>
+      </c>
+      <c r="H77" s="0">
+        <v>0.51522500000000004</v>
+      </c>
+      <c r="I77" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>0.62200299999999997</v>
+      </c>
+      <c r="B78" s="0">
+        <v>0.51364500000000002</v>
+      </c>
+      <c r="C78" s="0">
+        <v>0.543072</v>
+      </c>
+      <c r="D78" s="0">
+        <v>0.50772700000000004</v>
+      </c>
+      <c r="E78" s="0">
+        <v>0.50665400000000005</v>
+      </c>
+      <c r="F78" s="0">
+        <v>0.50558899999999996</v>
+      </c>
+      <c r="G78" s="0">
+        <v>0.51377899999999999</v>
+      </c>
+      <c r="H78" s="0">
+        <v>0.54237199999999997</v>
+      </c>
+      <c r="I78" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>0.72984599999999999</v>
+      </c>
+      <c r="B79" s="0">
+        <v>0.51259200000000005</v>
+      </c>
+      <c r="C79" s="0">
+        <v>0.65006299999999995</v>
+      </c>
+      <c r="D79" s="0">
+        <v>0.51213399999999998</v>
+      </c>
+      <c r="E79" s="0">
+        <v>0.51316099999999998</v>
+      </c>
+      <c r="F79" s="0">
+        <v>0.50989600000000002</v>
+      </c>
+      <c r="G79" s="0">
+        <v>0.51592400000000005</v>
+      </c>
+      <c r="H79" s="0">
+        <v>0.55134300000000003</v>
+      </c>
+      <c r="I79" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>0.58226500000000003</v>
+      </c>
+      <c r="B80" s="0">
+        <v>0.51028600000000002</v>
+      </c>
+      <c r="C80" s="0">
+        <v>0.51524199999999998</v>
+      </c>
+      <c r="D80" s="0">
+        <v>0.508579</v>
+      </c>
+      <c r="E80" s="0">
+        <v>0.51265300000000003</v>
+      </c>
+      <c r="F80" s="0">
+        <v>0.51161299999999998</v>
+      </c>
+      <c r="G80" s="0">
+        <v>0.510992</v>
+      </c>
+      <c r="H80" s="0">
+        <v>0.514737</v>
+      </c>
+      <c r="I80" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>0.59362300000000001</v>
+      </c>
+      <c r="B81" s="0">
+        <v>0.51390899999999995</v>
+      </c>
+      <c r="C81" s="0">
+        <v>0.523343</v>
+      </c>
+      <c r="D81" s="0">
+        <v>0.51217100000000004</v>
+      </c>
+      <c r="E81" s="0">
+        <v>0.51555300000000004</v>
+      </c>
+      <c r="F81" s="0">
+        <v>0.51529899999999995</v>
+      </c>
+      <c r="G81" s="0">
+        <v>0.53971100000000005</v>
+      </c>
+      <c r="H81" s="0">
+        <v>0.52736799999999995</v>
+      </c>
+      <c r="I81" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>0.55776999999999999</v>
+      </c>
+      <c r="B82" s="0">
+        <v>0.51359500000000002</v>
+      </c>
+      <c r="C82" s="0">
+        <v>0.53413900000000003</v>
+      </c>
+      <c r="D82" s="0">
+        <v>0.50674300000000005</v>
+      </c>
+      <c r="E82" s="0">
+        <v>0.53430999999999995</v>
+      </c>
+      <c r="F82" s="0">
+        <v>0.51968000000000003</v>
+      </c>
+      <c r="G82" s="0">
+        <v>0.53245399999999998</v>
+      </c>
+      <c r="H82" s="0">
+        <v>0.51812999999999998</v>
+      </c>
+      <c r="I82" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>0.65222999999999998</v>
+      </c>
+      <c r="B83" s="0">
+        <v>0.52343300000000004</v>
+      </c>
+      <c r="C83" s="0">
+        <v>0.52257699999999996</v>
+      </c>
+      <c r="D83" s="0">
+        <v>0.51331400000000005</v>
+      </c>
+      <c r="E83" s="0">
+        <v>0.51787300000000003</v>
+      </c>
+      <c r="F83" s="0">
+        <v>0.54864800000000002</v>
+      </c>
+      <c r="G83" s="0">
+        <v>0.53770099999999998</v>
+      </c>
+      <c r="H83" s="0">
+        <v>0.53738200000000003</v>
+      </c>
+      <c r="I83" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>0.53270099999999998</v>
+      </c>
+      <c r="B84" s="0">
+        <v>0.55387900000000001</v>
+      </c>
+      <c r="C84" s="0">
+        <v>0.58825899999999998</v>
+      </c>
+      <c r="D84" s="0">
+        <v>0.53281299999999998</v>
+      </c>
+      <c r="E84" s="0">
+        <v>0.57011699999999998</v>
+      </c>
+      <c r="F84" s="0">
+        <v>0.56284400000000001</v>
+      </c>
+      <c r="G84" s="0">
+        <v>0.58072400000000002</v>
+      </c>
+      <c r="H84" s="0">
+        <v>0.56710099999999997</v>
+      </c>
+      <c r="I84" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>0.69149099999999997</v>
+      </c>
+      <c r="B85" s="0">
+        <v>0.50923200000000002</v>
+      </c>
+      <c r="C85" s="0">
+        <v>0.50761199999999995</v>
+      </c>
+      <c r="D85" s="0">
+        <v>0.50637399999999999</v>
+      </c>
+      <c r="E85" s="0">
+        <v>0.51313200000000003</v>
+      </c>
+      <c r="F85" s="0">
+        <v>0.51346199999999997</v>
+      </c>
+      <c r="G85" s="0">
+        <v>0.50610900000000003</v>
+      </c>
+      <c r="H85" s="0">
+        <v>0.51770099999999997</v>
+      </c>
+      <c r="I85" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>0.53689200000000004</v>
+      </c>
+      <c r="B86" s="0">
+        <v>0.52950200000000003</v>
+      </c>
+      <c r="C86" s="0">
+        <v>0.56703199999999998</v>
+      </c>
+      <c r="D86" s="0">
+        <v>0.54378199999999999</v>
+      </c>
+      <c r="E86" s="0">
+        <v>0.52108200000000005</v>
+      </c>
+      <c r="F86" s="0">
+        <v>0.52271900000000004</v>
+      </c>
+      <c r="G86" s="0">
+        <v>0.52768099999999996</v>
+      </c>
+      <c r="H86" s="0">
+        <v>0.55382399999999998</v>
+      </c>
+      <c r="I86" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>0.58977599999999997</v>
+      </c>
+      <c r="B87" s="0">
+        <v>0.55237000000000003</v>
+      </c>
+      <c r="C87" s="0">
+        <v>0.54774299999999998</v>
+      </c>
+      <c r="D87" s="0">
+        <v>0.55536600000000003</v>
+      </c>
+      <c r="E87" s="0">
+        <v>0.54293100000000005</v>
+      </c>
+      <c r="F87" s="0">
+        <v>0.60900799999999999</v>
+      </c>
+      <c r="G87" s="0">
+        <v>0.55708999999999997</v>
+      </c>
+      <c r="H87" s="0">
+        <v>0.58378399999999997</v>
+      </c>
+      <c r="I87" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>0.60109599999999996</v>
+      </c>
+      <c r="B88" s="0">
+        <v>0.51278299999999999</v>
+      </c>
+      <c r="C88" s="0">
+        <v>0.51745399999999997</v>
+      </c>
+      <c r="D88" s="0">
+        <v>0.50820399999999999</v>
+      </c>
+      <c r="E88" s="0">
+        <v>0.51427800000000001</v>
+      </c>
+      <c r="F88" s="0">
+        <v>0.50456900000000005</v>
+      </c>
+      <c r="G88" s="0">
+        <v>0.53295400000000004</v>
+      </c>
+      <c r="H88" s="0">
+        <v>0.51572300000000004</v>
+      </c>
+      <c r="I88" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>0.52742</v>
+      </c>
+      <c r="B89" s="0">
+        <v>0.54599200000000003</v>
+      </c>
+      <c r="C89" s="0">
+        <v>0.59756299999999996</v>
+      </c>
+      <c r="D89" s="0">
+        <v>0.52882600000000002</v>
+      </c>
+      <c r="E89" s="0">
+        <v>0.53908199999999995</v>
+      </c>
+      <c r="F89" s="0">
+        <v>0.52539899999999995</v>
+      </c>
+      <c r="G89" s="0">
+        <v>0.52546700000000002</v>
+      </c>
+      <c r="H89" s="0">
+        <v>0.54786199999999996</v>
+      </c>
+      <c r="I89" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>0.57860100000000003</v>
+      </c>
+      <c r="B90" s="0">
+        <v>0.51042600000000005</v>
+      </c>
+      <c r="C90" s="0">
+        <v>0.55838699999999997</v>
+      </c>
+      <c r="D90" s="0">
+        <v>0.51181200000000004</v>
+      </c>
+      <c r="E90" s="0">
+        <v>0.53740299999999996</v>
+      </c>
+      <c r="F90" s="0">
+        <v>0.55515499999999995</v>
+      </c>
+      <c r="G90" s="0">
+        <v>0.53527499999999995</v>
+      </c>
+      <c r="H90" s="0">
+        <v>0.53044800000000003</v>
+      </c>
+      <c r="I90" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>0.56322399999999995</v>
+      </c>
+      <c r="B91" s="0">
+        <v>0.52890400000000004</v>
+      </c>
+      <c r="C91" s="0">
+        <v>0.60650199999999999</v>
+      </c>
+      <c r="D91" s="0">
+        <v>0.56642700000000001</v>
+      </c>
+      <c r="E91" s="0">
+        <v>0.55406299999999997</v>
+      </c>
+      <c r="F91" s="0">
+        <v>0.59712900000000002</v>
+      </c>
+      <c r="G91" s="0">
+        <v>0.58162199999999997</v>
+      </c>
+      <c r="H91" s="0">
+        <v>0.56761399999999995</v>
+      </c>
+      <c r="I91" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>0.70205099999999998</v>
+      </c>
+      <c r="B92" s="0">
+        <v>0.53224899999999997</v>
+      </c>
+      <c r="C92" s="0">
+        <v>0.54858399999999996</v>
+      </c>
+      <c r="D92" s="0">
+        <v>0.51870400000000005</v>
+      </c>
+      <c r="E92" s="0">
+        <v>0.51860399999999995</v>
+      </c>
+      <c r="F92" s="0">
+        <v>0.54610400000000003</v>
+      </c>
+      <c r="G92" s="0">
+        <v>0.62531999999999999</v>
+      </c>
+      <c r="H92" s="0">
+        <v>0.61185900000000004</v>
+      </c>
+      <c r="I92" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>0.585511</v>
+      </c>
+      <c r="B93" s="0">
+        <v>0.50700699999999999</v>
+      </c>
+      <c r="C93" s="0">
+        <v>0.52280099999999996</v>
+      </c>
+      <c r="D93" s="0">
+        <v>0.50943099999999997</v>
+      </c>
+      <c r="E93" s="0">
+        <v>0.519791</v>
+      </c>
+      <c r="F93" s="0">
+        <v>0.52199700000000004</v>
+      </c>
+      <c r="G93" s="0">
+        <v>0.51953700000000003</v>
+      </c>
+      <c r="H93" s="0">
+        <v>0.51091799999999998</v>
+      </c>
+      <c r="I93" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>0.68124399999999996</v>
+      </c>
+      <c r="B94" s="0">
+        <v>0.51104499999999997</v>
+      </c>
+      <c r="C94" s="0">
+        <v>0.52076500000000003</v>
+      </c>
+      <c r="D94" s="0">
+        <v>0.52639000000000002</v>
+      </c>
+      <c r="E94" s="0">
+        <v>0.51659200000000005</v>
+      </c>
+      <c r="F94" s="0">
+        <v>0.50974900000000001</v>
+      </c>
+      <c r="G94" s="0">
+        <v>0.55098899999999995</v>
+      </c>
+      <c r="H94" s="0">
+        <v>0.520729</v>
+      </c>
+      <c r="I94" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>0.53272900000000001</v>
+      </c>
+      <c r="B95" s="0">
+        <v>0.58157300000000001</v>
+      </c>
+      <c r="C95" s="0">
+        <v>0.72754200000000002</v>
+      </c>
+      <c r="D95" s="0">
+        <v>0.53162600000000004</v>
+      </c>
+      <c r="E95" s="0">
+        <v>0.56084400000000001</v>
+      </c>
+      <c r="F95" s="0">
+        <v>0.56258799999999998</v>
+      </c>
+      <c r="G95" s="0">
+        <v>0.61130799999999996</v>
+      </c>
+      <c r="H95" s="0">
+        <v>0.61106499999999997</v>
+      </c>
+      <c r="I95" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>1.6504289999999999</v>
+      </c>
+      <c r="B96" s="0">
+        <v>0.50494300000000003</v>
+      </c>
+      <c r="C96" s="0">
+        <v>0.51070800000000005</v>
+      </c>
+      <c r="D96" s="0">
+        <v>0.51931799999999995</v>
+      </c>
+      <c r="E96" s="0">
+        <v>0.61094000000000004</v>
+      </c>
+      <c r="F96" s="0">
+        <v>0.52301500000000001</v>
+      </c>
+      <c r="G96" s="0">
+        <v>0.52549000000000001</v>
+      </c>
+      <c r="H96" s="0">
+        <v>0.53284299999999996</v>
+      </c>
+      <c r="I96" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>0.59968200000000005</v>
+      </c>
+      <c r="B97" s="0">
+        <v>0.55012399999999995</v>
+      </c>
+      <c r="C97" s="0">
+        <v>0.54416399999999998</v>
+      </c>
+      <c r="D97" s="0">
+        <v>0.56411500000000003</v>
+      </c>
+      <c r="E97" s="0">
+        <v>0.55309900000000001</v>
+      </c>
+      <c r="F97" s="0">
+        <v>0.62852399999999997</v>
+      </c>
+      <c r="G97" s="0">
+        <v>0.556697</v>
+      </c>
+      <c r="H97" s="0">
+        <v>0.59865299999999999</v>
+      </c>
+      <c r="I97" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>0.64019400000000004</v>
+      </c>
+      <c r="B98" s="0">
+        <v>0.453926</v>
+      </c>
+      <c r="C98" s="0">
+        <v>0.50830600000000004</v>
+      </c>
+      <c r="D98" s="0">
+        <v>0.54664999999999997</v>
+      </c>
+      <c r="E98" s="0">
+        <v>0.488089</v>
+      </c>
+      <c r="F98" s="0">
+        <v>0.46799200000000002</v>
+      </c>
+      <c r="G98" s="0">
+        <v>0.521011</v>
+      </c>
+      <c r="H98" s="0">
+        <v>0.53434899999999996</v>
+      </c>
+      <c r="I98" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>0.65216799999999997</v>
+      </c>
+      <c r="B99" s="0">
+        <v>0.52284200000000003</v>
+      </c>
+      <c r="C99" s="0">
+        <v>0.52476100000000003</v>
+      </c>
+      <c r="D99" s="0">
+        <v>0.51525500000000002</v>
+      </c>
+      <c r="E99" s="0">
+        <v>0.52185499999999996</v>
+      </c>
+      <c r="F99" s="0">
+        <v>0.51837100000000003</v>
+      </c>
+      <c r="G99" s="0">
+        <v>0.54859800000000003</v>
+      </c>
+      <c r="H99" s="0">
+        <v>0.52030699999999996</v>
+      </c>
+      <c r="I99" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>0.52134400000000003</v>
+      </c>
+      <c r="B100" s="0">
+        <v>0.55927199999999999</v>
+      </c>
+      <c r="C100" s="0">
+        <v>0.67034199999999999</v>
+      </c>
+      <c r="D100" s="0">
+        <v>0.52700499999999995</v>
+      </c>
+      <c r="E100" s="0">
+        <v>0.55246700000000004</v>
+      </c>
+      <c r="F100" s="0">
+        <v>0.54148700000000005</v>
+      </c>
+      <c r="G100" s="0">
+        <v>0.57988200000000001</v>
+      </c>
+      <c r="H100" s="0">
+        <v>0.58612699999999995</v>
+      </c>
+      <c r="I100" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>0.58923400000000004</v>
+      </c>
+      <c r="B101" s="0">
+        <v>0.51807499999999995</v>
+      </c>
+      <c r="C101" s="0">
+        <v>0.52190700000000001</v>
+      </c>
+      <c r="D101" s="0">
+        <v>0.50926800000000005</v>
+      </c>
+      <c r="E101" s="0">
+        <v>0.50631199999999998</v>
+      </c>
+      <c r="F101" s="0">
+        <v>0.51936000000000004</v>
+      </c>
+      <c r="G101" s="0">
+        <v>0.51469600000000004</v>
+      </c>
+      <c r="H101" s="0">
+        <v>0.56251099999999998</v>
+      </c>
+      <c r="I101" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>0.569662</v>
+      </c>
+      <c r="B102" s="0">
+        <v>0.50931000000000004</v>
+      </c>
+      <c r="C102" s="0">
+        <v>0.53259400000000001</v>
+      </c>
+      <c r="D102" s="0">
+        <v>0.50494700000000003</v>
+      </c>
+      <c r="E102" s="0">
+        <v>0.52032900000000004</v>
+      </c>
+      <c r="F102" s="0">
+        <v>0.51954599999999995</v>
+      </c>
+      <c r="G102" s="0">
+        <v>0.52424400000000004</v>
+      </c>
+      <c r="H102" s="0">
+        <v>0.51653899999999997</v>
+      </c>
+      <c r="I102" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>0.58574999999999999</v>
+      </c>
+      <c r="B103" s="0">
+        <v>0.53972799999999999</v>
+      </c>
+      <c r="C103" s="0">
+        <v>0.535497</v>
+      </c>
+      <c r="D103" s="0">
+        <v>0.55923900000000004</v>
+      </c>
+      <c r="E103" s="0">
+        <v>0.53315100000000004</v>
+      </c>
+      <c r="F103" s="0">
+        <v>0.61175999999999997</v>
+      </c>
+      <c r="G103" s="0">
+        <v>0.55554099999999995</v>
+      </c>
+      <c r="H103" s="0">
+        <v>0.57760299999999998</v>
+      </c>
+      <c r="I103" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>0.561025</v>
+      </c>
+      <c r="B104" s="0">
+        <v>0.50791699999999995</v>
+      </c>
+      <c r="C104" s="0">
+        <v>0.51828099999999999</v>
+      </c>
+      <c r="D104" s="0">
+        <v>0.504718</v>
+      </c>
+      <c r="E104" s="0">
+        <v>0.50771900000000003</v>
+      </c>
+      <c r="F104" s="0">
+        <v>0.51580899999999996</v>
+      </c>
+      <c r="G104" s="0">
+        <v>0.51849500000000004</v>
+      </c>
+      <c r="H104" s="0">
+        <v>0.51730900000000002</v>
+      </c>
+      <c r="I104" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>0.59965800000000002</v>
+      </c>
+      <c r="B105" s="0">
+        <v>0.54586999999999997</v>
+      </c>
+      <c r="C105" s="0">
+        <v>0.53713900000000003</v>
+      </c>
+      <c r="D105" s="0">
+        <v>0.55233200000000005</v>
+      </c>
+      <c r="E105" s="0">
+        <v>0.53474699999999997</v>
+      </c>
+      <c r="F105" s="0">
+        <v>0.606352</v>
+      </c>
+      <c r="G105" s="0">
+        <v>0.54327800000000004</v>
+      </c>
+      <c r="H105" s="0">
+        <v>0.56834499999999999</v>
+      </c>
+      <c r="I105" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>0.52760600000000002</v>
+      </c>
+      <c r="B106" s="0">
+        <v>0.54554599999999998</v>
+      </c>
+      <c r="C106" s="0">
+        <v>0.58483600000000002</v>
+      </c>
+      <c r="D106" s="0">
+        <v>0.55609200000000003</v>
+      </c>
+      <c r="E106" s="0">
+        <v>0.57110300000000003</v>
+      </c>
+      <c r="F106" s="0">
+        <v>0.613819</v>
+      </c>
+      <c r="G106" s="0">
+        <v>0.58345499999999995</v>
+      </c>
+      <c r="H106" s="0">
+        <v>0.57214500000000001</v>
+      </c>
+      <c r="I106" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>0.55498899999999995</v>
+      </c>
+      <c r="B107" s="0">
+        <v>0.52188299999999999</v>
+      </c>
+      <c r="C107" s="0">
+        <v>0.55885099999999999</v>
+      </c>
+      <c r="D107" s="0">
+        <v>0.57930800000000005</v>
+      </c>
+      <c r="E107" s="0">
+        <v>0.54725100000000004</v>
+      </c>
+      <c r="F107" s="0">
+        <v>0.57204900000000003</v>
+      </c>
+      <c r="G107" s="0">
+        <v>0.54596599999999995</v>
+      </c>
+      <c r="H107" s="0">
+        <v>0.55685799999999996</v>
+      </c>
+      <c r="I107" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>0.54674900000000004</v>
+      </c>
+      <c r="B108" s="0">
+        <v>0.54319200000000001</v>
+      </c>
+      <c r="C108" s="0">
+        <v>0.59570500000000004</v>
+      </c>
+      <c r="D108" s="0">
+        <v>0.52956499999999995</v>
+      </c>
+      <c r="E108" s="0">
+        <v>0.56720499999999996</v>
+      </c>
+      <c r="F108" s="0">
+        <v>0.57435899999999995</v>
+      </c>
+      <c r="G108" s="0">
+        <v>0.60967700000000002</v>
+      </c>
+      <c r="H108" s="0">
+        <v>0.59748199999999996</v>
+      </c>
+      <c r="I108" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>0.57763500000000001</v>
+      </c>
+      <c r="B109" s="0">
+        <v>0.51380599999999998</v>
+      </c>
+      <c r="C109" s="0">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="D109" s="0">
+        <v>0.50722100000000003</v>
+      </c>
+      <c r="E109" s="0">
+        <v>0.51084499999999999</v>
+      </c>
+      <c r="F109" s="0">
+        <v>0.51401399999999997</v>
+      </c>
+      <c r="G109" s="0">
+        <v>0.52160399999999996</v>
+      </c>
+      <c r="H109" s="0">
+        <v>0.52215</v>
+      </c>
+      <c r="I109" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>0.540829</v>
+      </c>
+      <c r="B110" s="0">
+        <v>0.56253600000000004</v>
+      </c>
+      <c r="C110" s="0">
+        <v>0.59924599999999995</v>
+      </c>
+      <c r="D110" s="0">
+        <v>0.65608299999999997</v>
+      </c>
+      <c r="E110" s="0">
+        <v>0.58071200000000001</v>
+      </c>
+      <c r="F110" s="0">
+        <v>0.578434</v>
+      </c>
+      <c r="G110" s="0">
+        <v>0.58585600000000004</v>
+      </c>
+      <c r="H110" s="0">
+        <v>0.55730199999999996</v>
+      </c>
+      <c r="I110" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>0.55795700000000004</v>
+      </c>
+      <c r="B111" s="0">
+        <v>0.50985000000000003</v>
+      </c>
+      <c r="C111" s="0">
+        <v>0.51902599999999999</v>
+      </c>
+      <c r="D111" s="0">
+        <v>0.50498900000000002</v>
+      </c>
+      <c r="E111" s="0">
+        <v>0.51693199999999995</v>
+      </c>
+      <c r="F111" s="0">
+        <v>0.50748400000000005</v>
+      </c>
+      <c r="G111" s="0">
+        <v>0.51667200000000002</v>
+      </c>
+      <c r="H111" s="0">
+        <v>0.51453499999999996</v>
+      </c>
+      <c r="I111" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>0.54816600000000004</v>
+      </c>
+      <c r="B112" s="0">
+        <v>0.51381600000000005</v>
+      </c>
+      <c r="C112" s="0">
+        <v>0.53072799999999998</v>
+      </c>
+      <c r="D112" s="0">
+        <v>0.50513399999999997</v>
+      </c>
+      <c r="E112" s="0">
+        <v>0.52478800000000003</v>
+      </c>
+      <c r="F112" s="0">
+        <v>0.51522500000000004</v>
+      </c>
+      <c r="G112" s="0">
+        <v>0.52515800000000001</v>
+      </c>
+      <c r="H112" s="0">
+        <v>0.51327199999999995</v>
+      </c>
+      <c r="I112" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>0.57825499999999996</v>
+      </c>
+      <c r="B113" s="0">
+        <v>0.51900400000000002</v>
+      </c>
+      <c r="C113" s="0">
+        <v>0.53063199999999999</v>
+      </c>
+      <c r="D113" s="0">
+        <v>0.50804099999999996</v>
+      </c>
+      <c r="E113" s="0">
+        <v>0.52260200000000001</v>
+      </c>
+      <c r="F113" s="0">
+        <v>0.50563800000000003</v>
+      </c>
+      <c r="G113" s="0">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="H113" s="0">
+        <v>0.51676800000000001</v>
+      </c>
+      <c r="I113" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>0.73663199999999995</v>
+      </c>
+      <c r="B114" s="0">
+        <v>0.50847799999999999</v>
+      </c>
+      <c r="C114" s="0">
+        <v>0.50606899999999999</v>
+      </c>
+      <c r="D114" s="0">
+        <v>0.50511200000000001</v>
+      </c>
+      <c r="E114" s="0">
+        <v>0.52880099999999997</v>
+      </c>
+      <c r="F114" s="0">
+        <v>0.51721700000000004</v>
+      </c>
+      <c r="G114" s="0">
+        <v>0.50687599999999999</v>
+      </c>
+      <c r="H114" s="0">
+        <v>0.52152200000000004</v>
+      </c>
+      <c r="I114" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>0.68599200000000005</v>
+      </c>
+      <c r="B115" s="0">
+        <v>0.52106699999999995</v>
+      </c>
+      <c r="C115" s="0">
+        <v>0.53787200000000002</v>
+      </c>
+      <c r="D115" s="0">
+        <v>0.51730799999999999</v>
+      </c>
+      <c r="E115" s="0">
+        <v>0.52270300000000003</v>
+      </c>
+      <c r="F115" s="0">
+        <v>0.52892600000000001</v>
+      </c>
+      <c r="G115" s="0">
+        <v>0.552763</v>
+      </c>
+      <c r="H115" s="0">
+        <v>0.53944599999999998</v>
+      </c>
+      <c r="I115" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>0.54921399999999998</v>
+      </c>
+      <c r="B116" s="0">
+        <v>0.55694200000000005</v>
+      </c>
+      <c r="C116" s="0">
+        <v>0.55279199999999995</v>
+      </c>
+      <c r="D116" s="0">
+        <v>0.54578700000000002</v>
+      </c>
+      <c r="E116" s="0">
+        <v>0.56128500000000003</v>
+      </c>
+      <c r="F116" s="0">
+        <v>0.59760599999999997</v>
+      </c>
+      <c r="G116" s="0">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="H116" s="0">
+        <v>0.57689000000000001</v>
+      </c>
+      <c r="I116" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>0.63289399999999996</v>
+      </c>
+      <c r="B117" s="0">
+        <v>0.51433499999999999</v>
+      </c>
+      <c r="C117" s="0">
+        <v>0.52151400000000003</v>
+      </c>
+      <c r="D117" s="0">
+        <v>0.50588500000000003</v>
+      </c>
+      <c r="E117" s="0">
+        <v>0.51220299999999996</v>
+      </c>
+      <c r="F117" s="0">
+        <v>0.50802599999999998</v>
+      </c>
+      <c r="G117" s="0">
+        <v>0.53051099999999995</v>
+      </c>
+      <c r="H117" s="0">
+        <v>0.51556999999999997</v>
+      </c>
+      <c r="I117" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I29"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="true"/>
+    <col min="2" max="2" width="8.7109375" customWidth="true"/>
+    <col min="3" max="3" width="8.7109375" customWidth="true"/>
+    <col min="4" max="4" width="8.7109375" customWidth="true"/>
+    <col min="5" max="5" width="8.7109375" customWidth="true"/>
+    <col min="6" max="6" width="8.7109375" customWidth="true"/>
+    <col min="7" max="7" width="8.7109375" customWidth="true"/>
+    <col min="8" max="8" width="8.7109375" customWidth="true"/>
+    <col min="9" max="9" width="2.15625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>0.66139700000000001</v>
+      </c>
+      <c r="B1" s="0">
+        <v>0.51591799999999999</v>
+      </c>
+      <c r="C1" s="0">
+        <v>0.54706900000000003</v>
+      </c>
+      <c r="D1" s="0">
+        <v>0.50836999999999999</v>
+      </c>
+      <c r="E1" s="0">
+        <v>0.51589499999999999</v>
+      </c>
+      <c r="F1" s="0">
+        <v>0.55557400000000001</v>
+      </c>
+      <c r="G1" s="0">
+        <v>0.55224300000000004</v>
+      </c>
+      <c r="H1" s="0">
+        <v>0.52537100000000003</v>
+      </c>
+      <c r="I1" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>0.54762</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.52390099999999995</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.57222099999999998</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.531165</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.55330599999999996</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.58660199999999996</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.56785099999999999</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.56522799999999995</v>
+      </c>
+      <c r="I2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.59869799999999995</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.517737</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.52407099999999995</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.511405</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.52478999999999998</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.51162200000000002</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.59820600000000002</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.522173</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.698681</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.505884</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.50577099999999997</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.50497499999999995</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.51309099999999996</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.51168899999999995</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.50628099999999998</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.516212</v>
+      </c>
+      <c r="I4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.66106699999999996</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.53846300000000002</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.54452299999999998</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.52916799999999997</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.529053</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.54739099999999996</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.56516999999999995</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.55680600000000002</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.57320499999999996</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.51012199999999996</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.51035600000000003</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.50905199999999995</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.51095100000000004</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.51074200000000003</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.50979399999999997</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.513795</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.58351200000000003</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.51227500000000004</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.51960799999999996</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.51368899999999995</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.51163000000000003</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.506915</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.52671500000000004</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0.51069299999999995</v>
+      </c>
+      <c r="I7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.58732899999999999</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.51151100000000005</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.51317900000000005</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.507386</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.51138899999999998</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.52349800000000002</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0.53273499999999996</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0.52071800000000001</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.55113999999999996</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.51337100000000002</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.52137800000000001</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.50471600000000005</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.50616700000000003</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.50518099999999999</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0.50988299999999998</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0.52624700000000002</v>
+      </c>
+      <c r="I9" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.57775600000000005</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.51870000000000005</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.53202899999999997</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.51902199999999998</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.51025699999999996</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.50625500000000001</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.51744599999999996</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0.53966700000000001</v>
+      </c>
+      <c r="I10" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.58096000000000003</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.50737399999999999</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.50712900000000005</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.508046</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.50982099999999997</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.50794300000000003</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.50679600000000002</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0.515289</v>
+      </c>
+      <c r="I11" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.60264700000000004</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.53188299999999999</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.51729999999999998</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.51667600000000002</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.512934</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0.54159599999999997</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.51683699999999999</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.52609899999999998</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.56296100000000004</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.68382500000000002</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.53111900000000001</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.55585700000000005</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.56079699999999999</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.58955400000000002</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.60874700000000004</v>
+      </c>
+      <c r="I13" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>1.2043809999999999</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.72383600000000003</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.81759000000000004</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.77403999999999995</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.84966299999999995</v>
+      </c>
+      <c r="F14" s="0">
+        <v>1.0190140000000001</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.78489299999999995</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.92264000000000002</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>2.139338</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.99287300000000001</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0.93496299999999999</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.92168600000000001</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.90255700000000005</v>
+      </c>
+      <c r="F15" s="0">
+        <v>1.1067290000000001</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1.2034279999999999</v>
+      </c>
+      <c r="H15" s="0">
+        <v>1.1166670000000001</v>
+      </c>
+      <c r="I15" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.54855399999999999</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.50989499999999999</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.52573899999999996</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.50383299999999998</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.52348300000000003</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.51877799999999996</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0.52188699999999999</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0.51179200000000002</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.55266000000000004</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.62312299999999998</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0.64620299999999997</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.60358500000000004</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.63929899999999995</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.72206199999999998</v>
+      </c>
+      <c r="G17" s="0">
+        <v>1.1864889999999999</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0.59180500000000003</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.54944199999999999</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.50729100000000005</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.51604899999999998</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.505054</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.51525699999999997</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.51168999999999998</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0.51741899999999996</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.51530100000000001</v>
+      </c>
+      <c r="I18" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.59516100000000005</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.51218699999999995</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0.52564999999999995</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.51221099999999997</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.52613500000000002</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.53180099999999997</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0.51783900000000005</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.51327100000000003</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.57209900000000002</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.51380099999999995</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0.52329899999999996</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.50473900000000005</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.52484399999999998</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.51616799999999996</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.51707599999999998</v>
+      </c>
+      <c r="I20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.51917100000000005</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.552867</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0.63252699999999995</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.52448899999999998</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.53729800000000005</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0.54342100000000004</v>
+      </c>
+      <c r="G21" s="0">
+        <v>0.56872599999999995</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.58322600000000002</v>
+      </c>
+      <c r="I21" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.51995999999999998</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.54669299999999998</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0.61724599999999996</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0.52463700000000002</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.53432400000000002</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.56694599999999995</v>
+      </c>
+      <c r="G22" s="0">
+        <v>0.58089800000000003</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.59649099999999999</v>
+      </c>
+      <c r="I22" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.57624200000000003</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.516154</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0.61895999999999995</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.52498699999999998</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.53731799999999996</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0.56615899999999997</v>
+      </c>
+      <c r="G23" s="0">
+        <v>0.55096199999999995</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.60538000000000003</v>
+      </c>
+      <c r="I23" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.72229699999999997</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.97364799999999996</v>
+      </c>
+      <c r="C24" s="0">
+        <v>1.3570070000000001</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.97982800000000003</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.74112800000000001</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0.87180800000000003</v>
+      </c>
+      <c r="G24" s="0">
+        <v>0.96419600000000005</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0.89613799999999999</v>
+      </c>
+      <c r="I24" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.51336199999999999</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0.51656299999999999</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.50542900000000002</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.51193</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.52431700000000003</v>
+      </c>
+      <c r="G25" s="0">
+        <v>0.53285700000000003</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.52374699999999996</v>
+      </c>
+      <c r="I25" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.55247999999999997</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.513158</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0.51803200000000005</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.51058899999999996</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.507822</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.50430799999999998</v>
+      </c>
+      <c r="G26" s="0">
+        <v>0.50859100000000002</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0.52027999999999996</v>
+      </c>
+      <c r="I26" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.61323099999999997</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.63714999999999999</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0.86121999999999999</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.96055299999999999</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.63696299999999995</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.718692</v>
+      </c>
+      <c r="G27" s="0">
+        <v>0.98561500000000002</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.81694299999999997</v>
+      </c>
+      <c r="I27" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.57489199999999996</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.51318799999999998</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0.52168899999999996</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.50654200000000005</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0.51017299999999999</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0.51836599999999999</v>
+      </c>
+      <c r="G28" s="0">
+        <v>0.52450399999999997</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.52393699999999999</v>
+      </c>
+      <c r="I28" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.621529</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0.52608299999999997</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0.81705399999999995</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0.53741099999999997</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.51147100000000001</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0.55071700000000001</v>
+      </c>
+      <c r="G29" s="0">
+        <v>0.55780700000000005</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0.69891599999999998</v>
+      </c>
+      <c r="I29" s="0">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>